--- a/backend/fms_core/tests/valid_templates/Experiment_run_illumina_v5_3_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Experiment_run_illumina_v5_3_0.xlsx
@@ -2050,7 +2050,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R996"/>
+  <dimension ref="A1:R997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -2241,72 +2241,79 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="str">
-        <f aca="false">IF(B7&lt;&gt;"", B7, "")</f>
-        <v>containerIllumina</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
       <c r="C8" s="3" t="str">
         <f aca="false">IF(B8&lt;&gt;"", B8, "")</f>
-        <v/>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="14"/>
-      <c r="M8" s="15"/>
+        <v>containerIllumina</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -2412,7 +2419,7 @@
       <c r="G16" s="14"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="str">
@@ -3461,7 +3468,7 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="14"/>
+      <c r="F97" s="3"/>
       <c r="G97" s="14"/>
       <c r="M97" s="15"/>
     </row>
@@ -3507,11 +3514,15 @@
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="C101" s="3" t="str">
+        <f aca="false">IF(B101&lt;&gt;"", B101, "")</f>
+        <v/>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
+      <c r="M101" s="15"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
@@ -4104,8 +4115,8 @@
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
@@ -4548,7 +4559,15 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+    </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5328,25 +5347,26 @@
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C100">
+  <conditionalFormatting sqref="C8:C101">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>SUMPRODUCT(--ISNUMBER(SEARCH(MID(C7, ROW(INDIRECT("1:" &amp; LEN(C7))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789-_")))&lt;&gt;LEN(C7)</formula>
+      <formula>SUMPRODUCT(--ISNUMBER(SEARCH(MID(C8, ROW(INDIRECT("1:" &amp; LEN(C8))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789-_")))&lt;&gt;LEN(C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M7:M100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M8:M101" type="list">
       <formula1>Index!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D8:D101" type="list">
       <formula1>Index!$F$2:$F$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E8:E101" type="list">
       <formula1>INDIRECT(SUBSTITUTE(INDEX(Index!$G$2:$G$6, MATCH(C7, Index!$F$2:$F$6, 0), 1), " ", "_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5367,7 +5387,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -5456,41 +5476,42 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
@@ -5616,8 +5637,8 @@
       <c r="A19" s="4"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
@@ -5626,13 +5647,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6433,19 +6454,21 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
       <c r="G101" s="4"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="E102" s="4"/>
       <c r="G102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7393,6 +7416,11 @@
       <c r="G220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="F221" s="3"/>
       <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9732,25 +9760,28 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G1000" s="4"/>
     </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G1001" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:D101" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D102" type="list">
       <formula1>Index!$B$2:$B$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A100" type="list">
-      <formula1>Experiments!$A$7:$A$106</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A101" type="list">
+      <formula1>Experiments!$A$8:$A$107</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I100" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I101" type="list">
       <formula1>Index!$E$2:$E$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E101" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E102" type="none">
       <formula1>Index!$B$2:$B$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:G1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G1001" type="list">
       <formula1>"1,2,3,4,5,6,7,8,A01,A02,A03,A04,A05,A06,A07,A08"</formula1>
       <formula2>0</formula2>
     </dataValidation>
